--- a/artfynd/A 5292-2026 artfynd.xlsx
+++ b/artfynd/A 5292-2026 artfynd.xlsx
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131136941</v>
+        <v>131136961</v>
       </c>
       <c r="B4" t="n">
-        <v>83089</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,30 +911,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -942,10 +939,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>788995</v>
+        <v>789068</v>
       </c>
       <c r="R4" t="n">
-        <v>7131220</v>
+        <v>7131245</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -982,16 +979,15 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>på en gammal senvuxen gran</t>
+          <t>barksprätt på gammal gran</t>
         </is>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1010,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131136874</v>
+        <v>131136941</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>83089</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,27 +1017,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1052,10 +1048,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>788960</v>
+        <v>788995</v>
       </c>
       <c r="R5" t="n">
-        <v>7131416</v>
+        <v>7131220</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,6 +1084,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>på en gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1115,10 +1116,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131136961</v>
+        <v>131136874</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1126,27 +1127,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1154,10 +1158,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>789068</v>
+        <v>788960</v>
       </c>
       <c r="R6" t="n">
-        <v>7131245</v>
+        <v>7131416</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1192,17 +1196,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>barksprätt på gammal gran</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 5292-2026 artfynd.xlsx
+++ b/artfynd/A 5292-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131136818</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>131136808</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131136941</v>
+        <v>131136874</v>
       </c>
       <c r="B5" t="n">
-        <v>83089</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,27 +1017,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1048,10 +1048,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>788995</v>
+        <v>788960</v>
       </c>
       <c r="R5" t="n">
-        <v>7131220</v>
+        <v>7131416</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1084,11 +1084,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>på en gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1116,10 +1111,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131136874</v>
+        <v>131136941</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>83090</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1127,27 +1122,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
@@ -1158,10 +1153,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>788960</v>
+        <v>788995</v>
       </c>
       <c r="R6" t="n">
-        <v>7131416</v>
+        <v>7131220</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1194,6 +1189,11 @@
       <c r="AA6" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>på en gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1224,7 +1224,7 @@
         <v>131136881</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>131136918</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>131136813</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>131136774</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>131136826</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>131136930</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>131136896</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>131136854</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>131136788</v>
       </c>
       <c r="B16" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>131136785</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/artfynd/A 5292-2026 artfynd.xlsx
+++ b/artfynd/A 5292-2026 artfynd.xlsx
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131136961</v>
+        <v>131136874</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,27 +911,30 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -939,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>789068</v>
+        <v>788960</v>
       </c>
       <c r="R4" t="n">
-        <v>7131245</v>
+        <v>7131416</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -977,17 +980,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>barksprätt på gammal gran</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1006,10 +1005,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131136874</v>
+        <v>131136941</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>83090</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1017,27 +1016,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1048,10 +1047,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>788960</v>
+        <v>788995</v>
       </c>
       <c r="R5" t="n">
-        <v>7131416</v>
+        <v>7131220</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1084,6 +1083,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>på en gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1111,10 +1115,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131136941</v>
+        <v>131136961</v>
       </c>
       <c r="B6" t="n">
-        <v>83090</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,30 +1126,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1153,10 +1154,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>788995</v>
+        <v>789068</v>
       </c>
       <c r="R6" t="n">
-        <v>7131220</v>
+        <v>7131245</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,16 +1194,15 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>på en gammal senvuxen gran</t>
+          <t>barksprätt på gammal gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 5292-2026 artfynd.xlsx
+++ b/artfynd/A 5292-2026 artfynd.xlsx
@@ -1005,10 +1005,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131136941</v>
+        <v>131136961</v>
       </c>
       <c r="B5" t="n">
-        <v>83090</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,30 +1016,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1047,10 +1044,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>788995</v>
+        <v>789068</v>
       </c>
       <c r="R5" t="n">
-        <v>7131220</v>
+        <v>7131245</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1087,16 +1084,15 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>på en gammal senvuxen gran</t>
+          <t>barksprätt på gammal gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1115,10 +1111,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131136961</v>
+        <v>131136941</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>83090</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1126,27 +1122,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1154,10 +1153,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>789068</v>
+        <v>788995</v>
       </c>
       <c r="R6" t="n">
-        <v>7131245</v>
+        <v>7131220</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1194,15 +1193,16 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>barksprätt på gammal gran</t>
+          <t>på en gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131136881</v>
+        <v>131136984</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1232,30 +1232,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1263,10 +1264,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>788972</v>
+        <v>788839</v>
       </c>
       <c r="R7" t="n">
-        <v>7131396</v>
+        <v>7131504</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1301,13 +1302,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>hål i tallstam</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1326,10 +1331,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131136984</v>
+        <v>131136881</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1337,31 +1342,30 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1369,10 +1373,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>788839</v>
+        <v>788972</v>
       </c>
       <c r="R8" t="n">
-        <v>7131504</v>
+        <v>7131396</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,17 +1411,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>hål i tallstam</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 5292-2026 artfynd.xlsx
+++ b/artfynd/A 5292-2026 artfynd.xlsx
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131136874</v>
+        <v>131136941</v>
       </c>
       <c r="B4" t="n">
-        <v>79244</v>
+        <v>83090</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,27 +911,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>788960</v>
+        <v>788995</v>
       </c>
       <c r="R4" t="n">
-        <v>7131416</v>
+        <v>7131220</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -978,6 +978,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>på en gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1005,10 +1010,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131136961</v>
+        <v>131136874</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,27 +1021,30 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1044,10 +1052,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>789068</v>
+        <v>788960</v>
       </c>
       <c r="R5" t="n">
-        <v>7131245</v>
+        <v>7131416</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1082,17 +1090,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>barksprätt på gammal gran</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1111,10 +1115,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131136941</v>
+        <v>131136961</v>
       </c>
       <c r="B6" t="n">
-        <v>83090</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1122,30 +1126,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1153,10 +1154,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>788995</v>
+        <v>789068</v>
       </c>
       <c r="R6" t="n">
-        <v>7131220</v>
+        <v>7131245</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,16 +1194,15 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>på en gammal senvuxen gran</t>
+          <t>barksprätt på gammal gran</t>
         </is>
       </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1221,10 +1221,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131136984</v>
+        <v>131136881</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1232,31 +1232,30 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1264,10 +1263,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>788839</v>
+        <v>788972</v>
       </c>
       <c r="R7" t="n">
-        <v>7131504</v>
+        <v>7131396</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1302,17 +1301,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>hål i tallstam</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1331,10 +1326,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131136881</v>
+        <v>131136984</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1342,30 +1337,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>bålar</t>
-        </is>
-      </c>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1373,10 +1369,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>788972</v>
+        <v>788839</v>
       </c>
       <c r="R8" t="n">
-        <v>7131396</v>
+        <v>7131504</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1411,13 +1407,17 @@
           <t>2026-02-12</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>hål i tallstam</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 5292-2026 artfynd.xlsx
+++ b/artfynd/A 5292-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131136818</v>
       </c>
       <c r="B2" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         <v>131136808</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131136941</v>
+        <v>131136874</v>
       </c>
       <c r="B4" t="n">
-        <v>83090</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,27 +911,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1312</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>788995</v>
+        <v>788960</v>
       </c>
       <c r="R4" t="n">
-        <v>7131220</v>
+        <v>7131416</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -978,11 +978,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-02-12</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>på en gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1010,10 +1005,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131136874</v>
+        <v>131136941</v>
       </c>
       <c r="B5" t="n">
-        <v>79244</v>
+        <v>83091</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,27 +1016,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K5" t="inlineStr"/>
@@ -1052,10 +1047,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>788960</v>
+        <v>788995</v>
       </c>
       <c r="R5" t="n">
-        <v>7131416</v>
+        <v>7131220</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1088,6 +1083,11 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>på en gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1224,7 +1224,7 @@
         <v>131136881</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>131136918</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
         <v>131136813</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>131136774</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>131136826</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
         <v>131136930</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>131136896</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2074,7 +2074,7 @@
         <v>131136854</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>131136788</v>
       </c>
       <c r="B16" t="n">
-        <v>91830</v>
+        <v>91831</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>131136785</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>

--- a/artfynd/A 5292-2026 artfynd.xlsx
+++ b/artfynd/A 5292-2026 artfynd.xlsx
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131136874</v>
+        <v>131136941</v>
       </c>
       <c r="B4" t="n">
-        <v>79245</v>
+        <v>83091</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,27 +911,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>1312</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>fruktkroppar</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>788960</v>
+        <v>788995</v>
       </c>
       <c r="R4" t="n">
-        <v>7131416</v>
+        <v>7131220</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -978,6 +978,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>på en gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1005,10 +1010,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131136941</v>
+        <v>131136961</v>
       </c>
       <c r="B5" t="n">
-        <v>83091</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1016,30 +1021,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1047,10 +1049,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>788995</v>
+        <v>789068</v>
       </c>
       <c r="R5" t="n">
-        <v>7131220</v>
+        <v>7131245</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1087,16 +1089,15 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>på en gammal senvuxen gran</t>
+          <t>barksprätt på gammal gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1115,10 +1116,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131136961</v>
+        <v>131136874</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1126,27 +1127,30 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1154,10 +1158,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>789068</v>
+        <v>788960</v>
       </c>
       <c r="R6" t="n">
-        <v>7131245</v>
+        <v>7131416</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1192,17 +1196,13 @@
           <t>2026-02-12</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>barksprätt på gammal gran</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 5292-2026 artfynd.xlsx
+++ b/artfynd/A 5292-2026 artfynd.xlsx
@@ -900,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131136941</v>
+        <v>131136961</v>
       </c>
       <c r="B4" t="n">
-        <v>83091</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -911,30 +911,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1312</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -942,10 +939,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>788995</v>
+        <v>789068</v>
       </c>
       <c r="R4" t="n">
-        <v>7131220</v>
+        <v>7131245</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -982,16 +979,15 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>på en gammal senvuxen gran</t>
+          <t>barksprätt på gammal gran</t>
         </is>
       </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
+        <v>1</v>
+      </c>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1010,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131136961</v>
+        <v>131136941</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>83091</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1021,27 +1017,30 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>1312</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1049,10 +1048,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>789068</v>
+        <v>788995</v>
       </c>
       <c r="R5" t="n">
-        <v>7131245</v>
+        <v>7131220</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1089,15 +1088,16 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>barksprätt på gammal gran</t>
+          <t>på en gammal senvuxen gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -2179,7 +2179,7 @@
         <v>131136788</v>
       </c>
       <c r="B16" t="n">
-        <v>91831</v>
+        <v>91834</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
